--- a/excel/SkyTest.xlsx
+++ b/excel/SkyTest.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/excel/SkyTest.xlsx
+++ b/excel/SkyTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2320" windowWidth="25520" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="5800" yWindow="0" windowWidth="24960" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>MasterSky</t>
   </si>
@@ -30,37 +30,34 @@
     <t>y pos [asec]</t>
   </si>
   <si>
+    <t>xwidth</t>
+  </si>
+  <si>
+    <t>ywidth</t>
+  </si>
+  <si>
+    <t>emissivity</t>
+  </si>
+  <si>
+    <t>spectrum</t>
+  </si>
+  <si>
+    <t>blackbody</t>
+  </si>
+  <si>
+    <t>sourcenum</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>linefreq</t>
+  </si>
+  <si>
     <t>point</t>
-  </si>
-  <si>
-    <t>xwidth</t>
-  </si>
-  <si>
-    <t>ywidth</t>
-  </si>
-  <si>
-    <t>emissivity</t>
-  </si>
-  <si>
-    <t>gaussian</t>
-  </si>
-  <si>
-    <t>spectrum</t>
-  </si>
-  <si>
-    <t>blackbody</t>
-  </si>
-  <si>
-    <t>sourcenum</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>linefreq</t>
   </si>
 </sst>
 </file>
@@ -465,22 +462,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -488,19 +485,25 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -508,10 +511,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -519,12 +525,15 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -532,51 +541,75 @@
       <c r="C6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
